--- a/tileserver/styles/pdok/layers.xlsx
+++ b/tileserver/styles/pdok/layers.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3399" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="898">
   <si>
     <t>id</t>
   </si>
@@ -2686,6 +2686,33 @@
   </si>
   <si>
     <t>["interpolate",["exponential",2],["zoom"],1,1,20,9]</t>
+  </si>
+  <si>
+    <t>pontveer</t>
+  </si>
+  <si>
+    <t>wegdeel_lijn_veerverbinding_pontveer10</t>
+  </si>
+  <si>
+    <t>wegdeel_lijn_veerverbinding_voetveer10</t>
+  </si>
+  <si>
+    <t>voetveer</t>
+  </si>
+  <si>
+    <t>["all",["==","typeweg","veerverbinding"],["==", "hoofdverkeersgebruik", "gemengd verkeer"]]</t>
+  </si>
+  <si>
+    <t>["all",["==","typeweg","veerverbinding"],["!=", "hoofdverkeersgebruik", "gemengd verkeer"]]</t>
+  </si>
+  <si>
+    <t>inrichting_uitzichtpunt</t>
+  </si>
+  <si>
+    <t>["==","typeinrichtingselement","uitzichtpunt"]</t>
+  </si>
+  <si>
+    <t>uitzichtpunt</t>
   </si>
 </sst>
 </file>
@@ -3532,13 +3559,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN382"/>
+  <dimension ref="A1:AN385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K353" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P290" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R377" sqref="R377:R381"/>
+      <selection pane="bottomRight" activeCell="V298" sqref="V298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8331,79 +8358,61 @@
         <v>171</v>
       </c>
     </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>546</v>
+        <v>890</v>
       </c>
       <c r="B185" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C185" t="s">
         <v>40</v>
       </c>
       <c r="D185" t="s">
-        <v>448</v>
+        <v>155</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="O185" t="s">
-        <v>121</v>
-      </c>
-      <c r="P185" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q185" t="s">
-        <v>174</v>
-      </c>
-      <c r="R185" t="s">
-        <v>606</v>
-      </c>
-      <c r="T185" t="s">
-        <v>605</v>
-      </c>
-      <c r="U185" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="186" spans="1:39" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+      <c r="L185" t="s">
+        <v>118</v>
+      </c>
+      <c r="N185">
+        <v>100</v>
+      </c>
+      <c r="V185" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="186" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>547</v>
+        <v>891</v>
       </c>
       <c r="B186" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C186" t="s">
         <v>40</v>
       </c>
       <c r="D186" t="s">
-        <v>453</v>
+        <v>155</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="O186" t="s">
-        <v>121</v>
-      </c>
-      <c r="P186" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q186" t="s">
-        <v>174</v>
-      </c>
-      <c r="R186" t="s">
-        <v>606</v>
-      </c>
-      <c r="T186" t="s">
-        <v>605</v>
-      </c>
-      <c r="U186" t="s">
-        <v>171</v>
+        <v>894</v>
+      </c>
+      <c r="L186" t="s">
+        <v>118</v>
+      </c>
+      <c r="N186">
+        <v>100</v>
+      </c>
+      <c r="V186" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="187" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B187" t="s">
         <v>118</v>
@@ -8412,7 +8421,7 @@
         <v>40</v>
       </c>
       <c r="D187" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>550</v>
@@ -8438,7 +8447,7 @@
     </row>
     <row r="188" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B188" t="s">
         <v>118</v>
@@ -8447,7 +8456,7 @@
         <v>40</v>
       </c>
       <c r="D188" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>550</v>
@@ -8473,7 +8482,7 @@
     </row>
     <row r="189" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B189" t="s">
         <v>118</v>
@@ -8482,7 +8491,7 @@
         <v>40</v>
       </c>
       <c r="D189" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>550</v>
@@ -8508,7 +8517,7 @@
     </row>
     <row r="190" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>510</v>
+        <v>549</v>
       </c>
       <c r="B190" t="s">
         <v>118</v>
@@ -8517,10 +8526,10 @@
         <v>40</v>
       </c>
       <c r="D190" t="s">
-        <v>155</v>
+        <v>459</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>157</v>
+        <v>550</v>
       </c>
       <c r="O190" t="s">
         <v>121</v>
@@ -8529,18 +8538,21 @@
         <v>122</v>
       </c>
       <c r="Q190" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R190" t="s">
-        <v>514</v>
+        <v>606</v>
       </c>
       <c r="T190" t="s">
-        <v>124</v>
+        <v>605</v>
+      </c>
+      <c r="U190" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="191" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>511</v>
+        <v>551</v>
       </c>
       <c r="B191" t="s">
         <v>118</v>
@@ -8549,10 +8561,10 @@
         <v>40</v>
       </c>
       <c r="D191" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="O191" t="s">
         <v>121</v>
@@ -8561,18 +8573,21 @@
         <v>122</v>
       </c>
       <c r="Q191" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R191" t="s">
-        <v>514</v>
+        <v>606</v>
       </c>
       <c r="T191" t="s">
-        <v>124</v>
+        <v>605</v>
+      </c>
+      <c r="U191" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="192" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>699</v>
+        <v>510</v>
       </c>
       <c r="B192" t="s">
         <v>118</v>
@@ -8581,10 +8596,10 @@
         <v>40</v>
       </c>
       <c r="D192" t="s">
-        <v>448</v>
+        <v>155</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>509</v>
+        <v>157</v>
       </c>
       <c r="O192" t="s">
         <v>121</v>
@@ -8604,7 +8619,7 @@
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B193" t="s">
         <v>118</v>
@@ -8613,10 +8628,10 @@
         <v>40</v>
       </c>
       <c r="D193" t="s">
-        <v>155</v>
+        <v>448</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>159</v>
+        <v>509</v>
       </c>
       <c r="O193" t="s">
         <v>121</v>
@@ -8625,18 +8640,18 @@
         <v>122</v>
       </c>
       <c r="Q193" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R193" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="T193" t="s">
-        <v>527</v>
+        <v>124</v>
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>522</v>
+        <v>699</v>
       </c>
       <c r="B194" t="s">
         <v>118</v>
@@ -8648,7 +8663,7 @@
         <v>448</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="O194" t="s">
         <v>121</v>
@@ -8657,18 +8672,18 @@
         <v>122</v>
       </c>
       <c r="Q194" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R194" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="T194" t="s">
-        <v>527</v>
+        <v>124</v>
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B195" t="s">
         <v>118</v>
@@ -8677,10 +8692,10 @@
         <v>40</v>
       </c>
       <c r="D195" t="s">
-        <v>453</v>
+        <v>155</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>520</v>
+        <v>159</v>
       </c>
       <c r="O195" t="s">
         <v>121</v>
@@ -8700,7 +8715,7 @@
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B196" t="s">
         <v>118</v>
@@ -8709,7 +8724,7 @@
         <v>40</v>
       </c>
       <c r="D196" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>520</v>
@@ -8732,7 +8747,7 @@
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B197" t="s">
         <v>118</v>
@@ -8741,7 +8756,7 @@
         <v>40</v>
       </c>
       <c r="D197" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>520</v>
@@ -8764,7 +8779,7 @@
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="B198" t="s">
         <v>118</v>
@@ -8773,10 +8788,10 @@
         <v>40</v>
       </c>
       <c r="D198" t="s">
-        <v>155</v>
+        <v>458</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>161</v>
+        <v>520</v>
       </c>
       <c r="O198" t="s">
         <v>121</v>
@@ -8785,18 +8800,18 @@
         <v>122</v>
       </c>
       <c r="Q198" t="s">
-        <v>542</v>
+        <v>177</v>
       </c>
       <c r="R198" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="T198" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B199" t="s">
         <v>118</v>
@@ -8805,10 +8820,10 @@
         <v>40</v>
       </c>
       <c r="D199" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="O199" t="s">
         <v>121</v>
@@ -8817,18 +8832,18 @@
         <v>122</v>
       </c>
       <c r="Q199" t="s">
-        <v>542</v>
+        <v>177</v>
       </c>
       <c r="R199" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="T199" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B200" t="s">
         <v>118</v>
@@ -8837,10 +8852,10 @@
         <v>40</v>
       </c>
       <c r="D200" t="s">
-        <v>453</v>
+        <v>155</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>534</v>
+        <v>161</v>
       </c>
       <c r="O200" t="s">
         <v>121</v>
@@ -8860,7 +8875,7 @@
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B201" t="s">
         <v>118</v>
@@ -8869,7 +8884,7 @@
         <v>40</v>
       </c>
       <c r="D201" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>534</v>
@@ -8892,7 +8907,7 @@
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B202" t="s">
         <v>118</v>
@@ -8901,7 +8916,7 @@
         <v>40</v>
       </c>
       <c r="D202" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>534</v>
@@ -8924,7 +8939,7 @@
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>464</v>
+        <v>538</v>
       </c>
       <c r="B203" t="s">
         <v>118</v>
@@ -8933,10 +8948,10 @@
         <v>40</v>
       </c>
       <c r="D203" t="s">
-        <v>155</v>
+        <v>458</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>162</v>
+        <v>534</v>
       </c>
       <c r="O203" t="s">
         <v>121</v>
@@ -8945,18 +8960,18 @@
         <v>122</v>
       </c>
       <c r="Q203" t="s">
-        <v>356</v>
+        <v>542</v>
       </c>
       <c r="R203" t="s">
-        <v>411</v>
+        <v>540</v>
       </c>
       <c r="T203" t="s">
-        <v>605</v>
+        <v>541</v>
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>465</v>
+        <v>539</v>
       </c>
       <c r="B204" t="s">
         <v>118</v>
@@ -8965,10 +8980,10 @@
         <v>40</v>
       </c>
       <c r="D204" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>470</v>
+        <v>534</v>
       </c>
       <c r="O204" t="s">
         <v>121</v>
@@ -8977,18 +8992,18 @@
         <v>122</v>
       </c>
       <c r="Q204" t="s">
-        <v>356</v>
+        <v>542</v>
       </c>
       <c r="R204" t="s">
-        <v>411</v>
+        <v>540</v>
       </c>
       <c r="T204" t="s">
-        <v>605</v>
+        <v>541</v>
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B205" t="s">
         <v>118</v>
@@ -8997,10 +9012,10 @@
         <v>40</v>
       </c>
       <c r="D205" t="s">
-        <v>453</v>
+        <v>155</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>470</v>
+        <v>162</v>
       </c>
       <c r="O205" t="s">
         <v>121</v>
@@ -9020,7 +9035,7 @@
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B206" t="s">
         <v>118</v>
@@ -9029,7 +9044,7 @@
         <v>40</v>
       </c>
       <c r="D206" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>470</v>
@@ -9052,7 +9067,7 @@
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B207" t="s">
         <v>118</v>
@@ -9061,7 +9076,7 @@
         <v>40</v>
       </c>
       <c r="D207" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>470</v>
@@ -9084,7 +9099,7 @@
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B208" t="s">
         <v>118</v>
@@ -9093,7 +9108,7 @@
         <v>40</v>
       </c>
       <c r="D208" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>470</v>
@@ -9116,7 +9131,7 @@
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="B209" t="s">
         <v>118</v>
@@ -9125,10 +9140,10 @@
         <v>40</v>
       </c>
       <c r="D209" t="s">
-        <v>155</v>
+        <v>459</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>163</v>
+        <v>470</v>
       </c>
       <c r="O209" t="s">
         <v>121</v>
@@ -9137,18 +9152,18 @@
         <v>122</v>
       </c>
       <c r="Q209" t="s">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="R209" t="s">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="T209" t="s">
-        <v>552</v>
+        <v>605</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="B210" t="s">
         <v>118</v>
@@ -9157,10 +9172,10 @@
         <v>40</v>
       </c>
       <c r="D210" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="O210" t="s">
         <v>121</v>
@@ -9169,18 +9184,18 @@
         <v>122</v>
       </c>
       <c r="Q210" t="s">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="R210" t="s">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="T210" t="s">
-        <v>552</v>
+        <v>605</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B211" t="s">
         <v>118</v>
@@ -9189,10 +9204,10 @@
         <v>40</v>
       </c>
       <c r="D211" t="s">
-        <v>453</v>
+        <v>155</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>449</v>
+        <v>163</v>
       </c>
       <c r="O211" t="s">
         <v>121</v>
@@ -9212,7 +9227,7 @@
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B212" t="s">
         <v>118</v>
@@ -9221,7 +9236,7 @@
         <v>40</v>
       </c>
       <c r="D212" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>449</v>
@@ -9244,7 +9259,7 @@
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B213" t="s">
         <v>118</v>
@@ -9253,7 +9268,7 @@
         <v>40</v>
       </c>
       <c r="D213" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>449</v>
@@ -9276,7 +9291,7 @@
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B214" t="s">
         <v>118</v>
@@ -9285,7 +9300,7 @@
         <v>40</v>
       </c>
       <c r="D214" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>449</v>
@@ -9307,80 +9322,80 @@
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A215"/>
+      <c r="A215" t="s">
+        <v>462</v>
+      </c>
+      <c r="B215" t="s">
+        <v>118</v>
+      </c>
+      <c r="C215" t="s">
+        <v>40</v>
+      </c>
+      <c r="D215" t="s">
+        <v>459</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="O215" t="s">
+        <v>121</v>
+      </c>
+      <c r="P215" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>178</v>
+      </c>
+      <c r="R215" t="s">
+        <v>477</v>
+      </c>
+      <c r="T215" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A216" s="3" t="s">
+      <c r="A216" t="s">
+        <v>461</v>
+      </c>
+      <c r="B216" t="s">
+        <v>118</v>
+      </c>
+      <c r="C216" t="s">
+        <v>40</v>
+      </c>
+      <c r="D216" t="s">
+        <v>460</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="O216" t="s">
+        <v>121</v>
+      </c>
+      <c r="P216" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>178</v>
+      </c>
+      <c r="R216" t="s">
+        <v>477</v>
+      </c>
+      <c r="T216" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A217"/>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
         <v>853</v>
-      </c>
-    </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>406</v>
-      </c>
-      <c r="B217" t="s">
-        <v>118</v>
-      </c>
-      <c r="C217" t="s">
-        <v>40</v>
-      </c>
-      <c r="D217" t="s">
-        <v>164</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="O217" t="s">
-        <v>121</v>
-      </c>
-      <c r="P217" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q217" t="s">
-        <v>44</v>
-      </c>
-      <c r="R217" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>843</v>
-      </c>
-      <c r="B218" t="s">
-        <v>118</v>
-      </c>
-      <c r="C218" t="s">
-        <v>40</v>
-      </c>
-      <c r="D218" t="s">
-        <v>164</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="O218" t="s">
-        <v>121</v>
-      </c>
-      <c r="P218" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q218" t="s">
-        <v>44</v>
-      </c>
-      <c r="R218" t="s">
-        <v>845</v>
-      </c>
-      <c r="S218" t="s">
-        <v>846</v>
-      </c>
-      <c r="U218" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>165</v>
+        <v>406</v>
       </c>
       <c r="B219" t="s">
         <v>118</v>
@@ -9389,10 +9404,10 @@
         <v>40</v>
       </c>
       <c r="D219" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="O219" t="s">
         <v>121</v>
@@ -9409,7 +9424,7 @@
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>404</v>
+        <v>843</v>
       </c>
       <c r="B220" t="s">
         <v>118</v>
@@ -9418,10 +9433,10 @@
         <v>40</v>
       </c>
       <c r="D220" t="s">
-        <v>405</v>
+        <v>164</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="O220" t="s">
         <v>121</v>
@@ -9433,12 +9448,18 @@
         <v>44</v>
       </c>
       <c r="R220" t="s">
-        <v>488</v>
+        <v>845</v>
+      </c>
+      <c r="S220" t="s">
+        <v>846</v>
+      </c>
+      <c r="U220" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>485</v>
+        <v>165</v>
       </c>
       <c r="B221" t="s">
         <v>118</v>
@@ -9447,7 +9468,10 @@
         <v>40</v>
       </c>
       <c r="D221" t="s">
-        <v>482</v>
+        <v>166</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>835</v>
       </c>
       <c r="O221" t="s">
         <v>121</v>
@@ -9464,7 +9488,7 @@
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>486</v>
+        <v>404</v>
       </c>
       <c r="B222" t="s">
         <v>118</v>
@@ -9473,7 +9497,10 @@
         <v>40</v>
       </c>
       <c r="D222" t="s">
-        <v>483</v>
+        <v>405</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>835</v>
       </c>
       <c r="O222" t="s">
         <v>121</v>
@@ -9490,7 +9517,7 @@
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B223" t="s">
         <v>118</v>
@@ -9499,7 +9526,7 @@
         <v>40</v>
       </c>
       <c r="D223" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="O223" t="s">
         <v>121</v>
@@ -9513,77 +9540,65 @@
       <c r="R223" t="s">
         <v>488</v>
       </c>
-      <c r="T223" t="s">
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>486</v>
+      </c>
+      <c r="B224" t="s">
+        <v>118</v>
+      </c>
+      <c r="C224" t="s">
+        <v>40</v>
+      </c>
+      <c r="D224" t="s">
+        <v>483</v>
+      </c>
+      <c r="O224" t="s">
+        <v>121</v>
+      </c>
+      <c r="P224" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>44</v>
+      </c>
+      <c r="R224" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>487</v>
+      </c>
+      <c r="B225" t="s">
+        <v>118</v>
+      </c>
+      <c r="C225" t="s">
+        <v>40</v>
+      </c>
+      <c r="D225" t="s">
+        <v>484</v>
+      </c>
+      <c r="O225" t="s">
+        <v>121</v>
+      </c>
+      <c r="P225" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>44</v>
+      </c>
+      <c r="R225" t="s">
+        <v>488</v>
+      </c>
+      <c r="T225" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="224" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    <row r="226" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>818</v>
-      </c>
-      <c r="B224" t="s">
-        <v>118</v>
-      </c>
-      <c r="C224" t="s">
-        <v>40</v>
-      </c>
-      <c r="D224" t="s">
-        <v>164</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="O224" t="s">
-        <v>179</v>
-      </c>
-      <c r="P224" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q224" t="s">
-        <v>130</v>
-      </c>
-      <c r="R224" t="s">
-        <v>477</v>
-      </c>
-      <c r="U224" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="225" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>819</v>
-      </c>
-      <c r="B225" t="s">
-        <v>118</v>
-      </c>
-      <c r="C225" t="s">
-        <v>40</v>
-      </c>
-      <c r="D225" t="s">
-        <v>164</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="O225" t="s">
-        <v>179</v>
-      </c>
-      <c r="P225" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q225" t="s">
-        <v>130</v>
-      </c>
-      <c r="R225" t="s">
-        <v>477</v>
-      </c>
-      <c r="U225" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>820</v>
       </c>
       <c r="B226" t="s">
         <v>118</v>
@@ -9595,24 +9610,27 @@
         <v>164</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="O226" t="s">
+        <v>179</v>
+      </c>
+      <c r="P226" t="s">
         <v>121</v>
       </c>
-      <c r="P226" t="s">
-        <v>122</v>
-      </c>
       <c r="Q226" t="s">
-        <v>822</v>
+        <v>130</v>
       </c>
       <c r="R226" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="U226" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="B227" t="s">
         <v>118</v>
@@ -9624,30 +9642,27 @@
         <v>164</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="O227" t="s">
         <v>179</v>
       </c>
       <c r="P227" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q227" t="s">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="R227" t="s">
-        <v>830</v>
-      </c>
-      <c r="S227" t="s">
-        <v>823</v>
+        <v>477</v>
       </c>
       <c r="U227" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="B228" t="s">
         <v>118</v>
@@ -9659,27 +9674,24 @@
         <v>164</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="O228" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="P228" t="s">
         <v>122</v>
       </c>
       <c r="Q228" t="s">
-        <v>338</v>
+        <v>822</v>
       </c>
       <c r="R228" t="s">
-        <v>830</v>
-      </c>
-      <c r="S228" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>409</v>
+        <v>831</v>
       </c>
       <c r="B229" t="s">
         <v>118</v>
@@ -9688,30 +9700,33 @@
         <v>40</v>
       </c>
       <c r="D229" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="O229" t="s">
         <v>179</v>
       </c>
       <c r="P229" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q229" t="s">
-        <v>130</v>
+        <v>338</v>
       </c>
       <c r="R229" t="s">
-        <v>477</v>
+        <v>830</v>
+      </c>
+      <c r="S229" t="s">
+        <v>823</v>
       </c>
       <c r="U229" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>410</v>
+        <v>832</v>
       </c>
       <c r="B230" t="s">
         <v>118</v>
@@ -9720,30 +9735,30 @@
         <v>40</v>
       </c>
       <c r="D230" t="s">
-        <v>405</v>
+        <v>164</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="O230" t="s">
         <v>179</v>
       </c>
       <c r="P230" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q230" t="s">
-        <v>130</v>
+        <v>338</v>
       </c>
       <c r="R230" t="s">
-        <v>477</v>
-      </c>
-      <c r="U230" t="s">
-        <v>181</v>
+        <v>830</v>
+      </c>
+      <c r="S230" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>479</v>
+        <v>409</v>
       </c>
       <c r="B231" t="s">
         <v>118</v>
@@ -9752,7 +9767,10 @@
         <v>40</v>
       </c>
       <c r="D231" t="s">
-        <v>482</v>
+        <v>166</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>835</v>
       </c>
       <c r="O231" t="s">
         <v>179</v>
@@ -9772,7 +9790,7 @@
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>480</v>
+        <v>410</v>
       </c>
       <c r="B232" t="s">
         <v>118</v>
@@ -9781,7 +9799,10 @@
         <v>40</v>
       </c>
       <c r="D232" t="s">
-        <v>483</v>
+        <v>405</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>835</v>
       </c>
       <c r="O232" t="s">
         <v>179</v>
@@ -9801,7 +9822,7 @@
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B233" t="s">
         <v>118</v>
@@ -9810,7 +9831,7 @@
         <v>40</v>
       </c>
       <c r="D233" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="O233" t="s">
         <v>179</v>
@@ -9824,70 +9845,82 @@
       <c r="R233" t="s">
         <v>477</v>
       </c>
-      <c r="T233" t="s">
-        <v>552</v>
-      </c>
       <c r="U233" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A234"/>
+      <c r="A234" t="s">
+        <v>480</v>
+      </c>
+      <c r="B234" t="s">
+        <v>118</v>
+      </c>
+      <c r="C234" t="s">
+        <v>40</v>
+      </c>
+      <c r="D234" t="s">
+        <v>483</v>
+      </c>
+      <c r="O234" t="s">
+        <v>179</v>
+      </c>
+      <c r="P234" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>130</v>
+      </c>
+      <c r="R234" t="s">
+        <v>477</v>
+      </c>
+      <c r="U234" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A235" s="3" t="s">
+      <c r="A235" t="s">
+        <v>481</v>
+      </c>
+      <c r="B235" t="s">
+        <v>118</v>
+      </c>
+      <c r="C235" t="s">
+        <v>40</v>
+      </c>
+      <c r="D235" t="s">
+        <v>484</v>
+      </c>
+      <c r="O235" t="s">
+        <v>179</v>
+      </c>
+      <c r="P235" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>130</v>
+      </c>
+      <c r="R235" t="s">
+        <v>477</v>
+      </c>
+      <c r="T235" t="s">
+        <v>552</v>
+      </c>
+      <c r="U235" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A236"/>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
         <v>854</v>
-      </c>
-    </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>182</v>
-      </c>
-      <c r="B236" t="s">
-        <v>39</v>
-      </c>
-      <c r="C236" t="s">
-        <v>40</v>
-      </c>
-      <c r="D236" t="s">
-        <v>183</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I236" t="s">
-        <v>185</v>
-      </c>
-      <c r="J236" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>186</v>
-      </c>
-      <c r="B237" t="s">
-        <v>39</v>
-      </c>
-      <c r="C237" t="s">
-        <v>40</v>
-      </c>
-      <c r="D237" t="s">
-        <v>183</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I237" t="s">
-        <v>839</v>
-      </c>
-      <c r="J237" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>384</v>
+        <v>182</v>
       </c>
       <c r="B238" t="s">
         <v>39</v>
@@ -9896,21 +9929,21 @@
         <v>40</v>
       </c>
       <c r="D238" t="s">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="I238" t="s">
-        <v>403</v>
+        <v>185</v>
       </c>
       <c r="J238" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="239" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B239" t="s">
         <v>39</v>
@@ -9922,18 +9955,18 @@
         <v>183</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I239" t="s">
-        <v>191</v>
+        <v>839</v>
       </c>
       <c r="J239" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>886</v>
+        <v>384</v>
       </c>
       <c r="B240" t="s">
         <v>39</v>
@@ -9942,124 +9975,70 @@
         <v>40</v>
       </c>
       <c r="D240" t="s">
+        <v>41</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I240" t="s">
+        <v>403</v>
+      </c>
+      <c r="J240" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="241" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>189</v>
+      </c>
+      <c r="B241" t="s">
+        <v>39</v>
+      </c>
+      <c r="C241" t="s">
+        <v>40</v>
+      </c>
+      <c r="D241" t="s">
         <v>183</v>
       </c>
-      <c r="E240" s="2" t="s">
+      <c r="E241" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I241" t="s">
+        <v>191</v>
+      </c>
+      <c r="J241" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>886</v>
+      </c>
+      <c r="B242" t="s">
+        <v>39</v>
+      </c>
+      <c r="C242" t="s">
+        <v>40</v>
+      </c>
+      <c r="D242" t="s">
+        <v>183</v>
+      </c>
+      <c r="E242" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="I240" t="s">
+      <c r="I242" t="s">
         <v>130</v>
       </c>
-      <c r="J240" t="s">
+      <c r="J242" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A241"/>
-    </row>
-    <row r="242" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A243"/>
+    </row>
+    <row r="244" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>192</v>
-      </c>
-      <c r="B242" t="s">
-        <v>125</v>
-      </c>
-      <c r="C242" t="s">
-        <v>40</v>
-      </c>
-      <c r="D242" t="s">
-        <v>193</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F242" t="s">
-        <v>195</v>
-      </c>
-      <c r="V242" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y242" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z242" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA242" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB242" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC242" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD242" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH242" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI242" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ242" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="243" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>204</v>
-      </c>
-      <c r="B243" t="s">
-        <v>125</v>
-      </c>
-      <c r="C243" t="s">
-        <v>40</v>
-      </c>
-      <c r="D243" t="s">
-        <v>183</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F243" t="s">
-        <v>195</v>
-      </c>
-      <c r="V243" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y243" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z243" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA243" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB243" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC243" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD243" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH243" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI243" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ243" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>206</v>
       </c>
       <c r="B244" t="s">
         <v>125</v>
@@ -10071,18 +10050,45 @@
         <v>193</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="F244" t="s">
         <v>195</v>
       </c>
       <c r="V244" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="Y244" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z244" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA244" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB244" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC244" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD244" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH244" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI244" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ244" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="245" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B245" t="s">
         <v>125</v>
@@ -10094,18 +10100,45 @@
         <v>183</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F245" t="s">
         <v>195</v>
       </c>
       <c r="V245" t="s">
-        <v>208</v>
+        <v>196</v>
+      </c>
+      <c r="Y245" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z245" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA245" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB245" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC245" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD245" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH245" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI245" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ245" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="246" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B246" t="s">
         <v>125</v>
@@ -10114,21 +10147,21 @@
         <v>40</v>
       </c>
       <c r="D246" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F246" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="V246" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B247" t="s">
         <v>125</v>
@@ -10137,24 +10170,21 @@
         <v>40</v>
       </c>
       <c r="D247" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F247" t="s">
         <v>195</v>
       </c>
       <c r="V247" t="s">
-        <v>216</v>
-      </c>
-      <c r="X247" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="248" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B248" t="s">
         <v>125</v>
@@ -10166,21 +10196,18 @@
         <v>183</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F248" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="V248" t="s">
-        <v>216</v>
-      </c>
-      <c r="X248" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="249" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B249" t="s">
         <v>125</v>
@@ -10192,18 +10219,21 @@
         <v>193</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F249" t="s">
         <v>195</v>
       </c>
       <c r="V249" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="X249" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="250" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B250" t="s">
         <v>125</v>
@@ -10215,18 +10245,21 @@
         <v>183</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F250" t="s">
         <v>195</v>
       </c>
       <c r="V250" t="s">
-        <v>222</v>
+        <v>216</v>
+      </c>
+      <c r="X250" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="251" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B251" t="s">
         <v>125</v>
@@ -10238,48 +10271,18 @@
         <v>193</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F251" t="s">
         <v>195</v>
       </c>
       <c r="V251" t="s">
-        <v>227</v>
-      </c>
-      <c r="W251" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y251" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z251" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA251" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB251" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC251" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD251" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH251" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI251" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ251" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="252" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B252" t="s">
         <v>125</v>
@@ -10291,48 +10294,18 @@
         <v>183</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F252" t="s">
         <v>195</v>
       </c>
       <c r="V252" t="s">
-        <v>227</v>
-      </c>
-      <c r="W252" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y252" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z252" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA252" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB252" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC252" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD252" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH252" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI252" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ252" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="253" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B253" t="s">
         <v>125</v>
@@ -10344,13 +10317,16 @@
         <v>193</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>687</v>
+        <v>226</v>
       </c>
       <c r="F253" t="s">
         <v>195</v>
       </c>
       <c r="V253" t="s">
-        <v>232</v>
+        <v>227</v>
+      </c>
+      <c r="W253" t="b">
+        <v>1</v>
       </c>
       <c r="Y253" t="s">
         <v>197</v>
@@ -10382,7 +10358,7 @@
     </row>
     <row r="254" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B254" t="s">
         <v>125</v>
@@ -10394,13 +10370,16 @@
         <v>183</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>688</v>
+        <v>230</v>
       </c>
       <c r="F254" t="s">
         <v>195</v>
       </c>
       <c r="V254" t="s">
-        <v>232</v>
+        <v>227</v>
+      </c>
+      <c r="W254" t="b">
+        <v>1</v>
       </c>
       <c r="Y254" t="s">
         <v>197</v>
@@ -10432,7 +10411,7 @@
     </row>
     <row r="255" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B255" t="s">
         <v>125</v>
@@ -10444,18 +10423,45 @@
         <v>193</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>235</v>
+        <v>687</v>
       </c>
       <c r="F255" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="V255" t="s">
-        <v>237</v>
+        <v>232</v>
+      </c>
+      <c r="Y255" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z255" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA255" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB255" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC255" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD255" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH255" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI255" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ255" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="256" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B256" t="s">
         <v>125</v>
@@ -10467,18 +10473,45 @@
         <v>183</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>235</v>
+        <v>688</v>
       </c>
       <c r="F256" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="V256" t="s">
-        <v>237</v>
+        <v>232</v>
+      </c>
+      <c r="Y256" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z256" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA256" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB256" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC256" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD256" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH256" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI256" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ256" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="257" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B257" t="s">
         <v>125</v>
@@ -10490,18 +10523,18 @@
         <v>193</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F257" t="s">
         <v>236</v>
       </c>
       <c r="V257" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="258" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B258" t="s">
         <v>125</v>
@@ -10513,18 +10546,18 @@
         <v>183</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F258" t="s">
         <v>236</v>
       </c>
       <c r="V258" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="259" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B259" t="s">
         <v>125</v>
@@ -10533,24 +10566,21 @@
         <v>40</v>
       </c>
       <c r="D259" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F259" t="s">
         <v>236</v>
       </c>
       <c r="V259" t="s">
-        <v>245</v>
-      </c>
-      <c r="X259" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="260" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B260" t="s">
         <v>125</v>
@@ -10562,21 +10592,18 @@
         <v>183</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F260" t="s">
         <v>236</v>
       </c>
       <c r="V260" t="s">
-        <v>249</v>
-      </c>
-      <c r="X260" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="261" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B261" t="s">
         <v>125</v>
@@ -10588,21 +10615,21 @@
         <v>183</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F261" t="s">
         <v>236</v>
       </c>
       <c r="V261" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="X261" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B262" t="s">
         <v>125</v>
@@ -10611,24 +10638,24 @@
         <v>40</v>
       </c>
       <c r="D262" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F262" t="s">
         <v>236</v>
       </c>
       <c r="V262" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="X262" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B263" t="s">
         <v>125</v>
@@ -10640,21 +10667,21 @@
         <v>183</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F263" t="s">
         <v>236</v>
       </c>
       <c r="V263" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="X263" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="264" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B264" t="s">
         <v>125</v>
@@ -10666,21 +10693,21 @@
         <v>193</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F264" t="s">
         <v>236</v>
       </c>
       <c r="V264" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="X264" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="265" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B265" t="s">
         <v>125</v>
@@ -10689,24 +10716,24 @@
         <v>40</v>
       </c>
       <c r="D265" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F265" t="s">
         <v>236</v>
       </c>
       <c r="V265" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="X265" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B266" t="s">
         <v>125</v>
@@ -10715,24 +10742,24 @@
         <v>40</v>
       </c>
       <c r="D266" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F266" t="s">
         <v>236</v>
       </c>
       <c r="V266" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="X266" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="267" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B267" t="s">
         <v>125</v>
@@ -10744,24 +10771,21 @@
         <v>193</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F267" t="s">
         <v>236</v>
       </c>
       <c r="V267" t="s">
-        <v>270</v>
-      </c>
-      <c r="W267" t="b">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="X267" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="268" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B268" t="s">
         <v>125</v>
@@ -10773,24 +10797,21 @@
         <v>183</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>689</v>
+        <v>267</v>
       </c>
       <c r="F268" t="s">
         <v>236</v>
       </c>
       <c r="V268" t="s">
-        <v>270</v>
-      </c>
-      <c r="W268" t="b">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="X268" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B269" t="s">
         <v>125</v>
@@ -10802,21 +10823,24 @@
         <v>193</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F269" t="s">
         <v>236</v>
       </c>
       <c r="V269" t="s">
-        <v>275</v>
+        <v>270</v>
+      </c>
+      <c r="W269" t="b">
+        <v>1</v>
       </c>
       <c r="X269" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="270" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B270" t="s">
         <v>125</v>
@@ -10828,21 +10852,24 @@
         <v>183</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>277</v>
+        <v>689</v>
       </c>
       <c r="F270" t="s">
         <v>236</v>
       </c>
       <c r="V270" t="s">
-        <v>275</v>
+        <v>270</v>
+      </c>
+      <c r="W270" t="b">
+        <v>1</v>
       </c>
       <c r="X270" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="271" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B271" t="s">
         <v>125</v>
@@ -10851,27 +10878,24 @@
         <v>40</v>
       </c>
       <c r="D271" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F271" t="s">
         <v>236</v>
       </c>
       <c r="V271" t="s">
-        <v>280</v>
-      </c>
-      <c r="W271" t="b">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="X271" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B272" t="s">
         <v>125</v>
@@ -10880,123 +10904,84 @@
         <v>40</v>
       </c>
       <c r="D272" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F272" t="s">
         <v>236</v>
       </c>
       <c r="V272" t="s">
+        <v>275</v>
+      </c>
+      <c r="X272" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="273" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>278</v>
+      </c>
+      <c r="B273" t="s">
+        <v>125</v>
+      </c>
+      <c r="C273" t="s">
+        <v>40</v>
+      </c>
+      <c r="D273" t="s">
+        <v>183</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F273" t="s">
+        <v>236</v>
+      </c>
+      <c r="V273" t="s">
+        <v>280</v>
+      </c>
+      <c r="W273" t="b">
+        <v>1</v>
+      </c>
+      <c r="X273" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="274" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>281</v>
+      </c>
+      <c r="B274" t="s">
+        <v>125</v>
+      </c>
+      <c r="C274" t="s">
+        <v>40</v>
+      </c>
+      <c r="D274" t="s">
+        <v>282</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F274" t="s">
+        <v>236</v>
+      </c>
+      <c r="V274" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="273" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A273"/>
-    </row>
-    <row r="274" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A274" s="3" t="s">
+    <row r="275" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A275"/>
+    </row>
+    <row r="276" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
         <v>855</v>
-      </c>
-    </row>
-    <row r="275" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>284</v>
-      </c>
-      <c r="B275" t="s">
-        <v>125</v>
-      </c>
-      <c r="C275" t="s">
-        <v>40</v>
-      </c>
-      <c r="D275" t="s">
-        <v>285</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="V275" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y275" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z275" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA275" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB275" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC275" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD275" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH275" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI275" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ275" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="276" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>289</v>
-      </c>
-      <c r="B276" t="s">
-        <v>125</v>
-      </c>
-      <c r="C276" t="s">
-        <v>40</v>
-      </c>
-      <c r="D276" t="s">
-        <v>285</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="V276" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y276" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z276" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA276" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB276" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC276" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD276" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH276" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI276" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ276" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="277" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B277" t="s">
         <v>125</v>
@@ -11008,10 +10993,10 @@
         <v>285</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="V277" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Y277" t="s">
         <v>288</v>
@@ -11043,7 +11028,7 @@
     </row>
     <row r="278" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B278" t="s">
         <v>125</v>
@@ -11055,18 +11040,42 @@
         <v>285</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="V278" t="s">
-        <v>297</v>
-      </c>
-      <c r="X278" t="s">
-        <v>262</v>
+        <v>291</v>
+      </c>
+      <c r="Y278" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z278" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA278" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB278" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC278" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD278" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH278" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI278" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ278" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="279" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B279" t="s">
         <v>125</v>
@@ -11078,18 +11087,42 @@
         <v>285</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="V279" t="s">
-        <v>300</v>
-      </c>
-      <c r="X279" t="s">
-        <v>262</v>
+        <v>294</v>
+      </c>
+      <c r="Y279" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z279" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA279" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB279" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC279" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD279" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH279" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI279" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ279" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="280" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B280" t="s">
         <v>125</v>
@@ -11101,10 +11134,10 @@
         <v>285</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="V280" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="X280" t="s">
         <v>262</v>
@@ -11112,7 +11145,7 @@
     </row>
     <row r="281" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B281" t="s">
         <v>125</v>
@@ -11124,10 +11157,10 @@
         <v>285</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="V281" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="X281" t="s">
         <v>262</v>
@@ -11135,7 +11168,7 @@
     </row>
     <row r="282" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>765</v>
+        <v>301</v>
       </c>
       <c r="B282" t="s">
         <v>125</v>
@@ -11147,10 +11180,10 @@
         <v>285</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>766</v>
+        <v>302</v>
       </c>
       <c r="V282" t="s">
-        <v>767</v>
+        <v>303</v>
       </c>
       <c r="X282" t="s">
         <v>262</v>
@@ -11158,7 +11191,7 @@
     </row>
     <row r="283" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>619</v>
+        <v>304</v>
       </c>
       <c r="B283" t="s">
         <v>125</v>
@@ -11170,21 +11203,18 @@
         <v>285</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="V283" t="s">
-        <v>308</v>
-      </c>
-      <c r="W283" t="b">
-        <v>1</v>
+        <v>306</v>
       </c>
       <c r="X283" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="284" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>620</v>
+        <v>765</v>
       </c>
       <c r="B284" t="s">
         <v>125</v>
@@ -11193,24 +11223,21 @@
         <v>40</v>
       </c>
       <c r="D284" t="s">
-        <v>621</v>
+        <v>285</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>622</v>
+        <v>766</v>
       </c>
       <c r="V284" t="s">
-        <v>308</v>
-      </c>
-      <c r="W284" t="b">
-        <v>1</v>
+        <v>767</v>
       </c>
       <c r="X284" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="285" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>309</v>
+        <v>619</v>
       </c>
       <c r="B285" t="s">
         <v>125</v>
@@ -11222,10 +11249,13 @@
         <v>285</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="V285" t="s">
-        <v>311</v>
+        <v>308</v>
+      </c>
+      <c r="W285" t="b">
+        <v>1</v>
       </c>
       <c r="X285" t="s">
         <v>246</v>
@@ -11233,7 +11263,7 @@
     </row>
     <row r="286" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>312</v>
+        <v>620</v>
       </c>
       <c r="B286" t="s">
         <v>125</v>
@@ -11242,13 +11272,16 @@
         <v>40</v>
       </c>
       <c r="D286" t="s">
-        <v>285</v>
+        <v>621</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>313</v>
+        <v>622</v>
       </c>
       <c r="V286" t="s">
-        <v>314</v>
+        <v>308</v>
+      </c>
+      <c r="W286" t="b">
+        <v>1</v>
       </c>
       <c r="X286" t="s">
         <v>246</v>
@@ -11256,7 +11289,7 @@
     </row>
     <row r="287" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B287" t="s">
         <v>125</v>
@@ -11268,10 +11301,10 @@
         <v>285</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="V287" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="X287" t="s">
         <v>246</v>
@@ -11279,7 +11312,7 @@
     </row>
     <row r="288" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B288" t="s">
         <v>125</v>
@@ -11291,10 +11324,10 @@
         <v>285</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="V288" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="X288" t="s">
         <v>246</v>
@@ -11302,7 +11335,7 @@
     </row>
     <row r="289" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B289" t="s">
         <v>125</v>
@@ -11314,10 +11347,10 @@
         <v>285</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="V289" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="X289" t="s">
         <v>246</v>
@@ -11325,7 +11358,7 @@
     </row>
     <row r="290" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B290" t="s">
         <v>125</v>
@@ -11337,10 +11370,10 @@
         <v>285</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="V290" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="X290" t="s">
         <v>246</v>
@@ -11348,7 +11381,7 @@
     </row>
     <row r="291" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B291" t="s">
         <v>125</v>
@@ -11360,10 +11393,10 @@
         <v>285</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="V291" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="X291" t="s">
         <v>246</v>
@@ -11371,7 +11404,7 @@
     </row>
     <row r="292" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B292" t="s">
         <v>125</v>
@@ -11383,21 +11416,18 @@
         <v>285</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F292">
-        <v>15</v>
+        <v>325</v>
       </c>
       <c r="V292" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="X292" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="293" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>824</v>
+        <v>327</v>
       </c>
       <c r="B293" t="s">
         <v>125</v>
@@ -11409,18 +11439,18 @@
         <v>285</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>826</v>
+        <v>328</v>
       </c>
       <c r="V293" t="s">
-        <v>828</v>
+        <v>329</v>
       </c>
       <c r="X293" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="294" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>825</v>
+        <v>330</v>
       </c>
       <c r="B294" t="s">
         <v>125</v>
@@ -11432,10 +11462,13 @@
         <v>285</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>827</v>
+        <v>331</v>
+      </c>
+      <c r="F294">
+        <v>15</v>
       </c>
       <c r="V294" t="s">
-        <v>829</v>
+        <v>332</v>
       </c>
       <c r="X294" t="s">
         <v>256</v>
@@ -11443,7 +11476,7 @@
     </row>
     <row r="295" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="B295" t="s">
         <v>125</v>
@@ -11455,10 +11488,10 @@
         <v>285</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="V295" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="X295" t="s">
         <v>256</v>
@@ -11466,7 +11499,7 @@
     </row>
     <row r="296" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>333</v>
+        <v>825</v>
       </c>
       <c r="B296" t="s">
         <v>125</v>
@@ -11478,10 +11511,10 @@
         <v>285</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>334</v>
+        <v>827</v>
       </c>
       <c r="V296" t="s">
-        <v>335</v>
+        <v>829</v>
       </c>
       <c r="X296" t="s">
         <v>256</v>
@@ -11489,103 +11522,76 @@
     </row>
     <row r="297" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>608</v>
+        <v>836</v>
       </c>
       <c r="B297" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C297" t="s">
         <v>40</v>
       </c>
       <c r="D297" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="O297" t="s">
-        <v>121</v>
-      </c>
-      <c r="P297" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q297" t="s">
-        <v>338</v>
-      </c>
-      <c r="R297" t="s">
-        <v>553</v>
-      </c>
-      <c r="T297" t="s">
-        <v>175</v>
+        <v>837</v>
+      </c>
+      <c r="V297" t="s">
+        <v>838</v>
+      </c>
+      <c r="X297" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="298" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>612</v>
+        <v>895</v>
       </c>
       <c r="B298" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C298" t="s">
         <v>40</v>
       </c>
       <c r="D298" t="s">
-        <v>613</v>
+        <v>285</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="O298" t="s">
-        <v>121</v>
-      </c>
-      <c r="P298" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q298" t="s">
-        <v>338</v>
-      </c>
-      <c r="R298" t="s">
-        <v>553</v>
-      </c>
-      <c r="T298" t="s">
-        <v>175</v>
+        <v>896</v>
+      </c>
+      <c r="V298" t="s">
+        <v>897</v>
+      </c>
+      <c r="X298" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="299" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>611</v>
+        <v>333</v>
       </c>
       <c r="B299" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C299" t="s">
         <v>40</v>
       </c>
       <c r="D299" t="s">
-        <v>614</v>
+        <v>285</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="O299" t="s">
-        <v>121</v>
-      </c>
-      <c r="P299" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q299" t="s">
-        <v>338</v>
-      </c>
-      <c r="R299" t="s">
-        <v>553</v>
-      </c>
-      <c r="T299" t="s">
-        <v>175</v>
+        <v>334</v>
+      </c>
+      <c r="V299" t="s">
+        <v>335</v>
+      </c>
+      <c r="X299" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="300" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B300" t="s">
         <v>118</v>
@@ -11594,10 +11600,10 @@
         <v>40</v>
       </c>
       <c r="D300" t="s">
-        <v>615</v>
+        <v>336</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>618</v>
+        <v>337</v>
       </c>
       <c r="O300" t="s">
         <v>121</v>
@@ -11617,7 +11623,7 @@
     </row>
     <row r="301" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B301" t="s">
         <v>118</v>
@@ -11626,10 +11632,10 @@
         <v>40</v>
       </c>
       <c r="D301" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O301" t="s">
         <v>121</v>
@@ -11649,36 +11655,39 @@
     </row>
     <row r="302" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>339</v>
+        <v>611</v>
       </c>
       <c r="B302" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C302" t="s">
         <v>40</v>
       </c>
       <c r="D302" t="s">
-        <v>336</v>
+        <v>614</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="L302" t="s">
-        <v>118</v>
-      </c>
-      <c r="N302" t="s">
-        <v>341</v>
-      </c>
-      <c r="V302" t="s">
-        <v>342</v>
-      </c>
-      <c r="X302" t="s">
-        <v>256</v>
+        <v>617</v>
+      </c>
+      <c r="O302" t="s">
+        <v>121</v>
+      </c>
+      <c r="P302" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q302" t="s">
+        <v>338</v>
+      </c>
+      <c r="R302" t="s">
+        <v>553</v>
+      </c>
+      <c r="T302" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="303" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>343</v>
+        <v>610</v>
       </c>
       <c r="B303" t="s">
         <v>118</v>
@@ -11687,10 +11696,10 @@
         <v>40</v>
       </c>
       <c r="D303" t="s">
-        <v>336</v>
+        <v>615</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>340</v>
+        <v>618</v>
       </c>
       <c r="O303" t="s">
         <v>121</v>
@@ -11704,10 +11713,13 @@
       <c r="R303" t="s">
         <v>553</v>
       </c>
+      <c r="T303" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="304" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>645</v>
+        <v>609</v>
       </c>
       <c r="B304" t="s">
         <v>118</v>
@@ -11716,10 +11728,10 @@
         <v>40</v>
       </c>
       <c r="D304" t="s">
-        <v>336</v>
+        <v>616</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>646</v>
+        <v>618</v>
       </c>
       <c r="O304" t="s">
         <v>121</v>
@@ -11733,10 +11745,13 @@
       <c r="R304" t="s">
         <v>553</v>
       </c>
+      <c r="T304" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="305" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>652</v>
+        <v>339</v>
       </c>
       <c r="B305" t="s">
         <v>125</v>
@@ -11745,13 +11760,19 @@
         <v>40</v>
       </c>
       <c r="D305" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>653</v>
+        <v>340</v>
+      </c>
+      <c r="L305" t="s">
+        <v>118</v>
+      </c>
+      <c r="N305" t="s">
+        <v>341</v>
       </c>
       <c r="V305" t="s">
-        <v>654</v>
+        <v>342</v>
       </c>
       <c r="X305" t="s">
         <v>256</v>
@@ -11759,7 +11780,7 @@
     </row>
     <row r="306" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>647</v>
+        <v>343</v>
       </c>
       <c r="B306" t="s">
         <v>118</v>
@@ -11771,7 +11792,7 @@
         <v>336</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>649</v>
+        <v>340</v>
       </c>
       <c r="O306" t="s">
         <v>121</v>
@@ -11780,15 +11801,15 @@
         <v>122</v>
       </c>
       <c r="Q306" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="R306" t="s">
-        <v>656</v>
+        <v>553</v>
       </c>
     </row>
     <row r="307" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B307" t="s">
         <v>118</v>
@@ -11800,7 +11821,7 @@
         <v>336</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="O307" t="s">
         <v>121</v>
@@ -11809,44 +11830,38 @@
         <v>122</v>
       </c>
       <c r="Q307" t="s">
-        <v>651</v>
+        <v>338</v>
       </c>
       <c r="R307" t="s">
-        <v>655</v>
+        <v>553</v>
       </c>
     </row>
     <row r="308" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>813</v>
+        <v>652</v>
       </c>
       <c r="B308" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C308" t="s">
         <v>40</v>
       </c>
       <c r="D308" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="O308" t="s">
-        <v>121</v>
-      </c>
-      <c r="P308" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q308" t="s">
-        <v>338</v>
-      </c>
-      <c r="R308" t="s">
-        <v>655</v>
+        <v>653</v>
+      </c>
+      <c r="V308" t="s">
+        <v>654</v>
+      </c>
+      <c r="X308" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="309" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>815</v>
+        <v>647</v>
       </c>
       <c r="B309" t="s">
         <v>118</v>
@@ -11858,7 +11873,7 @@
         <v>336</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>816</v>
+        <v>649</v>
       </c>
       <c r="O309" t="s">
         <v>121</v>
@@ -11867,87 +11882,105 @@
         <v>122</v>
       </c>
       <c r="Q309" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="R309" t="s">
-        <v>655</v>
-      </c>
-      <c r="U309" t="s">
-        <v>817</v>
+        <v>656</v>
       </c>
     </row>
     <row r="310" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>344</v>
+        <v>648</v>
       </c>
       <c r="B310" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C310" t="s">
         <v>40</v>
       </c>
       <c r="D310" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="V310" t="s">
-        <v>347</v>
-      </c>
-      <c r="X310" t="s">
-        <v>256</v>
+        <v>650</v>
+      </c>
+      <c r="O310" t="s">
+        <v>121</v>
+      </c>
+      <c r="P310" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q310" t="s">
+        <v>651</v>
+      </c>
+      <c r="R310" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="311" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>348</v>
+        <v>813</v>
       </c>
       <c r="B311" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C311" t="s">
         <v>40</v>
       </c>
       <c r="D311" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="V311" t="s">
-        <v>347</v>
-      </c>
-      <c r="X311" t="s">
-        <v>256</v>
+        <v>814</v>
+      </c>
+      <c r="O311" t="s">
+        <v>121</v>
+      </c>
+      <c r="P311" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q311" t="s">
+        <v>338</v>
+      </c>
+      <c r="R311" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="312" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>350</v>
+        <v>815</v>
       </c>
       <c r="B312" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C312" t="s">
         <v>40</v>
       </c>
       <c r="D312" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="V312" t="s">
-        <v>280</v>
-      </c>
-      <c r="X312" t="s">
-        <v>256</v>
+        <v>816</v>
+      </c>
+      <c r="O312" t="s">
+        <v>121</v>
+      </c>
+      <c r="P312" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q312" t="s">
+        <v>338</v>
+      </c>
+      <c r="R312" t="s">
+        <v>655</v>
+      </c>
+      <c r="U312" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="313" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B313" t="s">
         <v>125</v>
@@ -11956,29 +11989,67 @@
         <v>40</v>
       </c>
       <c r="D313" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V313" t="s">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="X313" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="314" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A314"/>
+      <c r="A314" t="s">
+        <v>348</v>
+      </c>
+      <c r="B314" t="s">
+        <v>125</v>
+      </c>
+      <c r="C314" t="s">
+        <v>40</v>
+      </c>
+      <c r="D314" t="s">
+        <v>349</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="V314" t="s">
+        <v>347</v>
+      </c>
+      <c r="X314" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="315" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A315" s="3" t="s">
-        <v>856</v>
+      <c r="A315" t="s">
+        <v>350</v>
+      </c>
+      <c r="B315" t="s">
+        <v>125</v>
+      </c>
+      <c r="C315" t="s">
+        <v>40</v>
+      </c>
+      <c r="D315" t="s">
+        <v>345</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="V315" t="s">
+        <v>280</v>
+      </c>
+      <c r="X315" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="316" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>554</v>
+        <v>352</v>
       </c>
       <c r="B316" t="s">
         <v>125</v>
@@ -11987,166 +12058,29 @@
         <v>40</v>
       </c>
       <c r="D316" t="s">
-        <v>155</v>
+        <v>349</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F316" t="s">
-        <v>561</v>
-      </c>
-      <c r="L316" t="s">
-        <v>118</v>
-      </c>
-      <c r="M316" t="b">
-        <v>1</v>
-      </c>
-      <c r="N316" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y316" t="s">
-        <v>354</v>
-      </c>
-      <c r="Z316" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA316">
-        <v>12</v>
-      </c>
-      <c r="AD316" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG316" t="s">
-        <v>355</v>
-      </c>
-      <c r="AH316" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI316" t="s">
-        <v>356</v>
-      </c>
-      <c r="AJ316" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK316" t="s">
-        <v>131</v>
+        <v>351</v>
+      </c>
+      <c r="V316" t="s">
+        <v>280</v>
+      </c>
+      <c r="X316" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="317" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>555</v>
-      </c>
-      <c r="B317" t="s">
-        <v>125</v>
-      </c>
-      <c r="C317" t="s">
-        <v>40</v>
-      </c>
-      <c r="D317" t="s">
-        <v>448</v>
-      </c>
-      <c r="E317" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F317" t="s">
-        <v>561</v>
-      </c>
-      <c r="L317" t="s">
-        <v>118</v>
-      </c>
-      <c r="M317" t="b">
-        <v>1</v>
-      </c>
-      <c r="N317" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y317" t="s">
-        <v>560</v>
-      </c>
-      <c r="Z317" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA317">
-        <v>12</v>
-      </c>
-      <c r="AD317" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG317" t="s">
-        <v>355</v>
-      </c>
-      <c r="AH317" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI317" t="s">
-        <v>356</v>
-      </c>
-      <c r="AJ317" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK317" t="s">
-        <v>131</v>
-      </c>
+      <c r="A317"/>
     </row>
     <row r="318" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>556</v>
-      </c>
-      <c r="B318" t="s">
-        <v>125</v>
-      </c>
-      <c r="C318" t="s">
-        <v>40</v>
-      </c>
-      <c r="D318" t="s">
-        <v>453</v>
-      </c>
-      <c r="E318" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F318" t="s">
-        <v>561</v>
-      </c>
-      <c r="L318" t="s">
-        <v>118</v>
-      </c>
-      <c r="M318" t="b">
-        <v>1</v>
-      </c>
-      <c r="N318" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y318" t="s">
-        <v>560</v>
-      </c>
-      <c r="Z318" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA318">
-        <v>12</v>
-      </c>
-      <c r="AD318" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG318" t="s">
-        <v>355</v>
-      </c>
-      <c r="AH318" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI318" t="s">
-        <v>356</v>
-      </c>
-      <c r="AJ318" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK318" t="s">
-        <v>131</v>
+      <c r="A318" s="3" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="319" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B319" t="s">
         <v>125</v>
@@ -12155,10 +12089,10 @@
         <v>40</v>
       </c>
       <c r="D319" t="s">
-        <v>458</v>
+        <v>155</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>449</v>
+        <v>163</v>
       </c>
       <c r="F319" t="s">
         <v>561</v>
@@ -12202,7 +12136,7 @@
     </row>
     <row r="320" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B320" t="s">
         <v>125</v>
@@ -12211,7 +12145,7 @@
         <v>40</v>
       </c>
       <c r="D320" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>449</v>
@@ -12229,7 +12163,7 @@
         <v>353</v>
       </c>
       <c r="Y320" t="s">
-        <v>354</v>
+        <v>560</v>
       </c>
       <c r="Z320" t="s">
         <v>128</v>
@@ -12258,7 +12192,7 @@
     </row>
     <row r="321" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B321" t="s">
         <v>125</v>
@@ -12267,7 +12201,7 @@
         <v>40</v>
       </c>
       <c r="D321" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>449</v>
@@ -12285,7 +12219,7 @@
         <v>353</v>
       </c>
       <c r="Y321" t="s">
-        <v>354</v>
+        <v>560</v>
       </c>
       <c r="Z321" t="s">
         <v>128</v>
@@ -12314,7 +12248,7 @@
     </row>
     <row r="322" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B322" t="s">
         <v>125</v>
@@ -12323,10 +12257,10 @@
         <v>40</v>
       </c>
       <c r="D322" t="s">
-        <v>155</v>
+        <v>458</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>163</v>
+        <v>449</v>
       </c>
       <c r="F322" t="s">
         <v>561</v>
@@ -12338,10 +12272,10 @@
         <v>1</v>
       </c>
       <c r="N322" t="s">
-        <v>568</v>
+        <v>353</v>
       </c>
       <c r="Y322" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Z322" t="s">
         <v>128</v>
@@ -12359,7 +12293,7 @@
         <v>130</v>
       </c>
       <c r="AI322" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AJ322" t="s">
         <v>131</v>
@@ -12370,7 +12304,7 @@
     </row>
     <row r="323" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B323" t="s">
         <v>125</v>
@@ -12379,7 +12313,7 @@
         <v>40</v>
       </c>
       <c r="D323" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>449</v>
@@ -12394,10 +12328,10 @@
         <v>1</v>
       </c>
       <c r="N323" t="s">
-        <v>568</v>
+        <v>353</v>
       </c>
       <c r="Y323" t="s">
-        <v>576</v>
+        <v>354</v>
       </c>
       <c r="Z323" t="s">
         <v>128</v>
@@ -12415,7 +12349,7 @@
         <v>130</v>
       </c>
       <c r="AI323" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AJ323" t="s">
         <v>131</v>
@@ -12426,7 +12360,7 @@
     </row>
     <row r="324" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B324" t="s">
         <v>125</v>
@@ -12435,7 +12369,7 @@
         <v>40</v>
       </c>
       <c r="D324" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>449</v>
@@ -12450,10 +12384,10 @@
         <v>1</v>
       </c>
       <c r="N324" t="s">
-        <v>568</v>
+        <v>353</v>
       </c>
       <c r="Y324" t="s">
-        <v>576</v>
+        <v>354</v>
       </c>
       <c r="Z324" t="s">
         <v>128</v>
@@ -12471,7 +12405,7 @@
         <v>130</v>
       </c>
       <c r="AI324" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AJ324" t="s">
         <v>131</v>
@@ -12482,7 +12416,7 @@
     </row>
     <row r="325" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B325" t="s">
         <v>125</v>
@@ -12491,10 +12425,10 @@
         <v>40</v>
       </c>
       <c r="D325" t="s">
-        <v>458</v>
+        <v>155</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>449</v>
+        <v>163</v>
       </c>
       <c r="F325" t="s">
         <v>561</v>
@@ -12538,7 +12472,7 @@
     </row>
     <row r="326" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B326" t="s">
         <v>125</v>
@@ -12547,7 +12481,7 @@
         <v>40</v>
       </c>
       <c r="D326" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>449</v>
@@ -12565,7 +12499,7 @@
         <v>568</v>
       </c>
       <c r="Y326" t="s">
-        <v>357</v>
+        <v>576</v>
       </c>
       <c r="Z326" t="s">
         <v>128</v>
@@ -12594,7 +12528,7 @@
     </row>
     <row r="327" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B327" t="s">
         <v>125</v>
@@ -12603,7 +12537,7 @@
         <v>40</v>
       </c>
       <c r="D327" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>449</v>
@@ -12621,7 +12555,7 @@
         <v>568</v>
       </c>
       <c r="Y327" t="s">
-        <v>357</v>
+        <v>576</v>
       </c>
       <c r="Z327" t="s">
         <v>128</v>
@@ -12650,7 +12584,7 @@
     </row>
     <row r="328" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B328" t="s">
         <v>125</v>
@@ -12659,13 +12593,13 @@
         <v>40</v>
       </c>
       <c r="D328" t="s">
-        <v>155</v>
+        <v>458</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>162</v>
+        <v>449</v>
       </c>
       <c r="F328" t="s">
-        <v>195</v>
+        <v>561</v>
       </c>
       <c r="L328" t="s">
         <v>118</v>
@@ -12677,7 +12611,7 @@
         <v>568</v>
       </c>
       <c r="Y328" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Z328" t="s">
         <v>128</v>
@@ -12692,10 +12626,10 @@
         <v>355</v>
       </c>
       <c r="AH328" t="s">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="AI328" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AJ328" t="s">
         <v>131</v>
@@ -12706,7 +12640,7 @@
     </row>
     <row r="329" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B329" t="s">
         <v>125</v>
@@ -12715,13 +12649,13 @@
         <v>40</v>
       </c>
       <c r="D329" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="F329" t="s">
-        <v>195</v>
+        <v>561</v>
       </c>
       <c r="L329" t="s">
         <v>118</v>
@@ -12733,7 +12667,7 @@
         <v>568</v>
       </c>
       <c r="Y329" t="s">
-        <v>575</v>
+        <v>357</v>
       </c>
       <c r="Z329" t="s">
         <v>128</v>
@@ -12748,10 +12682,10 @@
         <v>355</v>
       </c>
       <c r="AH329" t="s">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="AI329" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AJ329" t="s">
         <v>131</v>
@@ -12762,7 +12696,7 @@
     </row>
     <row r="330" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B330" t="s">
         <v>125</v>
@@ -12771,13 +12705,13 @@
         <v>40</v>
       </c>
       <c r="D330" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="F330" t="s">
-        <v>195</v>
+        <v>561</v>
       </c>
       <c r="L330" t="s">
         <v>118</v>
@@ -12789,7 +12723,7 @@
         <v>568</v>
       </c>
       <c r="Y330" t="s">
-        <v>575</v>
+        <v>357</v>
       </c>
       <c r="Z330" t="s">
         <v>128</v>
@@ -12804,10 +12738,10 @@
         <v>355</v>
       </c>
       <c r="AH330" t="s">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="AI330" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AJ330" t="s">
         <v>131</v>
@@ -12818,7 +12752,7 @@
     </row>
     <row r="331" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B331" t="s">
         <v>125</v>
@@ -12827,10 +12761,10 @@
         <v>40</v>
       </c>
       <c r="D331" t="s">
-        <v>458</v>
+        <v>155</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>470</v>
+        <v>162</v>
       </c>
       <c r="F331" t="s">
         <v>195</v>
@@ -12874,7 +12808,7 @@
     </row>
     <row r="332" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B332" t="s">
         <v>125</v>
@@ -12883,7 +12817,7 @@
         <v>40</v>
       </c>
       <c r="D332" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>470</v>
@@ -12901,7 +12835,7 @@
         <v>568</v>
       </c>
       <c r="Y332" t="s">
-        <v>359</v>
+        <v>575</v>
       </c>
       <c r="Z332" t="s">
         <v>128</v>
@@ -12930,7 +12864,7 @@
     </row>
     <row r="333" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B333" t="s">
         <v>125</v>
@@ -12939,7 +12873,7 @@
         <v>40</v>
       </c>
       <c r="D333" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>470</v>
@@ -12957,7 +12891,7 @@
         <v>568</v>
       </c>
       <c r="Y333" t="s">
-        <v>359</v>
+        <v>575</v>
       </c>
       <c r="Z333" t="s">
         <v>128</v>
@@ -12986,7 +12920,7 @@
     </row>
     <row r="334" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>657</v>
+        <v>572</v>
       </c>
       <c r="B334" t="s">
         <v>125</v>
@@ -12995,7 +12929,10 @@
         <v>40</v>
       </c>
       <c r="D334" t="s">
-        <v>155</v>
+        <v>458</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="F334" t="s">
         <v>195</v>
@@ -13010,7 +12947,7 @@
         <v>568</v>
       </c>
       <c r="Y334" t="s">
-        <v>663</v>
+        <v>359</v>
       </c>
       <c r="Z334" t="s">
         <v>128</v>
@@ -13028,7 +12965,7 @@
         <v>338</v>
       </c>
       <c r="AI334" t="s">
-        <v>130</v>
+        <v>360</v>
       </c>
       <c r="AJ334" t="s">
         <v>131</v>
@@ -13039,7 +12976,7 @@
     </row>
     <row r="335" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>658</v>
+        <v>573</v>
       </c>
       <c r="B335" t="s">
         <v>125</v>
@@ -13048,7 +12985,10 @@
         <v>40</v>
       </c>
       <c r="D335" t="s">
-        <v>448</v>
+        <v>459</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="F335" t="s">
         <v>195</v>
@@ -13063,7 +13003,7 @@
         <v>568</v>
       </c>
       <c r="Y335" t="s">
-        <v>664</v>
+        <v>359</v>
       </c>
       <c r="Z335" t="s">
         <v>128</v>
@@ -13081,7 +13021,7 @@
         <v>338</v>
       </c>
       <c r="AI335" t="s">
-        <v>130</v>
+        <v>360</v>
       </c>
       <c r="AJ335" t="s">
         <v>131</v>
@@ -13092,7 +13032,7 @@
     </row>
     <row r="336" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>659</v>
+        <v>574</v>
       </c>
       <c r="B336" t="s">
         <v>125</v>
@@ -13101,7 +13041,10 @@
         <v>40</v>
       </c>
       <c r="D336" t="s">
-        <v>453</v>
+        <v>460</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="F336" t="s">
         <v>195</v>
@@ -13116,7 +13059,7 @@
         <v>568</v>
       </c>
       <c r="Y336" t="s">
-        <v>664</v>
+        <v>359</v>
       </c>
       <c r="Z336" t="s">
         <v>128</v>
@@ -13134,7 +13077,7 @@
         <v>338</v>
       </c>
       <c r="AI336" t="s">
-        <v>130</v>
+        <v>360</v>
       </c>
       <c r="AJ336" t="s">
         <v>131</v>
@@ -13145,7 +13088,7 @@
     </row>
     <row r="337" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B337" t="s">
         <v>125</v>
@@ -13154,7 +13097,7 @@
         <v>40</v>
       </c>
       <c r="D337" t="s">
-        <v>458</v>
+        <v>155</v>
       </c>
       <c r="F337" t="s">
         <v>195</v>
@@ -13198,7 +13141,7 @@
     </row>
     <row r="338" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B338" t="s">
         <v>125</v>
@@ -13207,7 +13150,7 @@
         <v>40</v>
       </c>
       <c r="D338" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F338" t="s">
         <v>195</v>
@@ -13222,7 +13165,7 @@
         <v>568</v>
       </c>
       <c r="Y338" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Z338" t="s">
         <v>128</v>
@@ -13251,7 +13194,7 @@
     </row>
     <row r="339" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B339" t="s">
         <v>125</v>
@@ -13260,7 +13203,7 @@
         <v>40</v>
       </c>
       <c r="D339" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F339" t="s">
         <v>195</v>
@@ -13275,7 +13218,7 @@
         <v>568</v>
       </c>
       <c r="Y339" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Z339" t="s">
         <v>128</v>
@@ -13304,7 +13247,7 @@
     </row>
     <row r="340" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B340" t="s">
         <v>125</v>
@@ -13313,13 +13256,22 @@
         <v>40</v>
       </c>
       <c r="D340" t="s">
-        <v>155</v>
+        <v>458</v>
       </c>
       <c r="F340" t="s">
         <v>195</v>
       </c>
+      <c r="L340" t="s">
+        <v>118</v>
+      </c>
+      <c r="M340" t="b">
+        <v>1</v>
+      </c>
+      <c r="N340" t="s">
+        <v>568</v>
+      </c>
       <c r="Y340" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="Z340" t="s">
         <v>128</v>
@@ -13334,10 +13286,10 @@
         <v>355</v>
       </c>
       <c r="AH340" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI340" t="s">
         <v>130</v>
-      </c>
-      <c r="AI340" t="s">
-        <v>667</v>
       </c>
       <c r="AJ340" t="s">
         <v>131</v>
@@ -13348,7 +13300,7 @@
     </row>
     <row r="341" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B341" t="s">
         <v>125</v>
@@ -13357,13 +13309,22 @@
         <v>40</v>
       </c>
       <c r="D341" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="F341" t="s">
         <v>195</v>
       </c>
+      <c r="L341" t="s">
+        <v>118</v>
+      </c>
+      <c r="M341" t="b">
+        <v>1</v>
+      </c>
+      <c r="N341" t="s">
+        <v>568</v>
+      </c>
       <c r="Y341" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="Z341" t="s">
         <v>128</v>
@@ -13378,10 +13339,10 @@
         <v>355</v>
       </c>
       <c r="AH341" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI341" t="s">
         <v>130</v>
-      </c>
-      <c r="AI341" t="s">
-        <v>667</v>
       </c>
       <c r="AJ341" t="s">
         <v>131</v>
@@ -13392,7 +13353,7 @@
     </row>
     <row r="342" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="B342" t="s">
         <v>125</v>
@@ -13401,10 +13362,10 @@
         <v>40</v>
       </c>
       <c r="D342" t="s">
-        <v>155</v>
+        <v>460</v>
       </c>
       <c r="F342" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="L342" t="s">
         <v>118</v>
@@ -13412,8 +13373,11 @@
       <c r="M342" t="b">
         <v>1</v>
       </c>
+      <c r="N342" t="s">
+        <v>568</v>
+      </c>
       <c r="Y342" t="s">
-        <v>288</v>
+        <v>663</v>
       </c>
       <c r="Z342" t="s">
         <v>128</v>
@@ -13434,15 +13398,15 @@
         <v>130</v>
       </c>
       <c r="AJ342" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK342" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="343" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>624</v>
+        <v>665</v>
       </c>
       <c r="B343" t="s">
         <v>125</v>
@@ -13451,19 +13415,13 @@
         <v>40</v>
       </c>
       <c r="D343" t="s">
-        <v>448</v>
+        <v>155</v>
       </c>
       <c r="F343" t="s">
-        <v>236</v>
-      </c>
-      <c r="L343" t="s">
-        <v>118</v>
-      </c>
-      <c r="M343" t="b">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="Y343" t="s">
-        <v>629</v>
+        <v>666</v>
       </c>
       <c r="Z343" t="s">
         <v>128</v>
@@ -13478,21 +13436,21 @@
         <v>355</v>
       </c>
       <c r="AH343" t="s">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="AI343" t="s">
-        <v>130</v>
+        <v>667</v>
       </c>
       <c r="AJ343" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK343" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="344" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="B344" t="s">
         <v>125</v>
@@ -13501,19 +13459,13 @@
         <v>40</v>
       </c>
       <c r="D344" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F344" t="s">
-        <v>236</v>
-      </c>
-      <c r="L344" t="s">
-        <v>118</v>
-      </c>
-      <c r="M344" t="b">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="Y344" t="s">
-        <v>629</v>
+        <v>666</v>
       </c>
       <c r="Z344" t="s">
         <v>128</v>
@@ -13528,21 +13480,21 @@
         <v>355</v>
       </c>
       <c r="AH344" t="s">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="AI344" t="s">
-        <v>130</v>
+        <v>667</v>
       </c>
       <c r="AJ344" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK344" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="345" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B345" t="s">
         <v>125</v>
@@ -13551,7 +13503,7 @@
         <v>40</v>
       </c>
       <c r="D345" t="s">
-        <v>458</v>
+        <v>155</v>
       </c>
       <c r="F345" t="s">
         <v>236</v>
@@ -13592,7 +13544,7 @@
     </row>
     <row r="346" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B346" t="s">
         <v>125</v>
@@ -13601,7 +13553,7 @@
         <v>40</v>
       </c>
       <c r="D346" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F346" t="s">
         <v>236</v>
@@ -13613,7 +13565,7 @@
         <v>1</v>
       </c>
       <c r="Y346" t="s">
-        <v>288</v>
+        <v>629</v>
       </c>
       <c r="Z346" t="s">
         <v>128</v>
@@ -13642,7 +13594,7 @@
     </row>
     <row r="347" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B347" t="s">
         <v>125</v>
@@ -13651,7 +13603,7 @@
         <v>40</v>
       </c>
       <c r="D347" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F347" t="s">
         <v>236</v>
@@ -13663,7 +13615,7 @@
         <v>1</v>
       </c>
       <c r="Y347" t="s">
-        <v>288</v>
+        <v>629</v>
       </c>
       <c r="Z347" t="s">
         <v>128</v>
@@ -13692,7 +13644,7 @@
     </row>
     <row r="348" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B348" t="s">
         <v>125</v>
@@ -13701,48 +13653,48 @@
         <v>40</v>
       </c>
       <c r="D348" t="s">
-        <v>361</v>
-      </c>
-      <c r="E348" s="2" t="s">
-        <v>362</v>
+        <v>458</v>
       </c>
       <c r="F348" t="s">
-        <v>363</v>
+        <v>236</v>
+      </c>
+      <c r="L348" t="s">
+        <v>118</v>
+      </c>
+      <c r="M348" t="b">
+        <v>1</v>
       </c>
       <c r="Y348" t="s">
-        <v>631</v>
+        <v>288</v>
       </c>
       <c r="Z348" t="s">
         <v>128</v>
       </c>
-      <c r="AA348" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB348" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC348" t="s">
-        <v>366</v>
+      <c r="AA348">
+        <v>12</v>
       </c>
       <c r="AD348" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE348" t="s">
-        <v>367</v>
+        <v>195</v>
+      </c>
+      <c r="AG348" t="s">
+        <v>355</v>
       </c>
       <c r="AH348" t="s">
-        <v>630</v>
+        <v>338</v>
       </c>
       <c r="AI348" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="AJ348" t="s">
-        <v>203</v>
+        <v>132</v>
+      </c>
+      <c r="AK348" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="349" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B349" t="s">
         <v>125</v>
@@ -13751,48 +13703,48 @@
         <v>40</v>
       </c>
       <c r="D349" t="s">
-        <v>368</v>
-      </c>
-      <c r="E349" s="2" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="F349" t="s">
-        <v>363</v>
+        <v>236</v>
+      </c>
+      <c r="L349" t="s">
+        <v>118</v>
+      </c>
+      <c r="M349" t="b">
+        <v>1</v>
       </c>
       <c r="Y349" t="s">
-        <v>364</v>
+        <v>288</v>
       </c>
       <c r="Z349" t="s">
         <v>128</v>
       </c>
-      <c r="AA349" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB349" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC349" t="s">
-        <v>366</v>
+      <c r="AA349">
+        <v>12</v>
       </c>
       <c r="AD349" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE349" t="s">
-        <v>367</v>
+        <v>195</v>
+      </c>
+      <c r="AG349" t="s">
+        <v>355</v>
       </c>
       <c r="AH349" t="s">
-        <v>630</v>
+        <v>338</v>
       </c>
       <c r="AI349" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="AJ349" t="s">
-        <v>203</v>
+        <v>132</v>
+      </c>
+      <c r="AK349" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="350" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B350" t="s">
         <v>125</v>
@@ -13801,45 +13753,48 @@
         <v>40</v>
       </c>
       <c r="D350" t="s">
-        <v>361</v>
-      </c>
-      <c r="E350" s="2" t="s">
-        <v>369</v>
+        <v>460</v>
       </c>
       <c r="F350" t="s">
-        <v>363</v>
+        <v>236</v>
+      </c>
+      <c r="L350" t="s">
+        <v>118</v>
+      </c>
+      <c r="M350" t="b">
+        <v>1</v>
       </c>
       <c r="Y350" t="s">
-        <v>364</v>
+        <v>288</v>
       </c>
       <c r="Z350" t="s">
         <v>128</v>
       </c>
-      <c r="AA350" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB350" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC350" t="s">
-        <v>366</v>
+      <c r="AA350">
+        <v>12</v>
       </c>
       <c r="AD350" t="s">
-        <v>142</v>
+        <v>195</v>
+      </c>
+      <c r="AG350" t="s">
+        <v>355</v>
       </c>
       <c r="AH350" t="s">
-        <v>630</v>
+        <v>338</v>
       </c>
       <c r="AI350" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="AJ350" t="s">
-        <v>203</v>
+        <v>132</v>
+      </c>
+      <c r="AK350" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="351" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B351" t="s">
         <v>125</v>
@@ -13848,22 +13803,22 @@
         <v>40</v>
       </c>
       <c r="D351" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F351" t="s">
         <v>363</v>
       </c>
       <c r="Y351" t="s">
-        <v>364</v>
+        <v>631</v>
       </c>
       <c r="Z351" t="s">
         <v>128</v>
       </c>
       <c r="AA351" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="AB351" t="s">
         <v>256</v>
@@ -13874,6 +13829,9 @@
       <c r="AD351" t="s">
         <v>142</v>
       </c>
+      <c r="AE351" t="s">
+        <v>367</v>
+      </c>
       <c r="AH351" t="s">
         <v>630</v>
       </c>
@@ -13886,7 +13844,7 @@
     </row>
     <row r="352" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B352" t="s">
         <v>125</v>
@@ -13895,19 +13853,22 @@
         <v>40</v>
       </c>
       <c r="D352" t="s">
-        <v>644</v>
+        <v>368</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="F352" t="s">
-        <v>195</v>
+        <v>363</v>
       </c>
       <c r="Y352" t="s">
-        <v>638</v>
+        <v>364</v>
       </c>
       <c r="Z352" t="s">
         <v>128</v>
       </c>
-      <c r="AA352">
-        <v>10</v>
+      <c r="AA352" t="s">
+        <v>365</v>
       </c>
       <c r="AB352" t="s">
         <v>256</v>
@@ -13933,7 +13894,7 @@
     </row>
     <row r="353" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B353" t="s">
         <v>125</v>
@@ -13942,19 +13903,22 @@
         <v>40</v>
       </c>
       <c r="D353" t="s">
-        <v>637</v>
+        <v>361</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="F353" t="s">
         <v>363</v>
       </c>
       <c r="Y353" t="s">
-        <v>638</v>
+        <v>364</v>
       </c>
       <c r="Z353" t="s">
         <v>128</v>
       </c>
-      <c r="AA353">
-        <v>10</v>
+      <c r="AA353" t="s">
+        <v>370</v>
       </c>
       <c r="AB353" t="s">
         <v>256</v>
@@ -13965,9 +13929,6 @@
       <c r="AD353" t="s">
         <v>142</v>
       </c>
-      <c r="AE353" t="s">
-        <v>367</v>
-      </c>
       <c r="AH353" t="s">
         <v>630</v>
       </c>
@@ -13980,7 +13941,7 @@
     </row>
     <row r="354" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B354" t="s">
         <v>125</v>
@@ -13989,19 +13950,22 @@
         <v>40</v>
       </c>
       <c r="D354" t="s">
-        <v>642</v>
+        <v>368</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="F354" t="s">
         <v>363</v>
       </c>
       <c r="Y354" t="s">
-        <v>638</v>
+        <v>364</v>
       </c>
       <c r="Z354" t="s">
         <v>128</v>
       </c>
-      <c r="AA354">
-        <v>10</v>
+      <c r="AA354" t="s">
+        <v>370</v>
       </c>
       <c r="AB354" t="s">
         <v>256</v>
@@ -14012,9 +13976,6 @@
       <c r="AD354" t="s">
         <v>142</v>
       </c>
-      <c r="AE354" t="s">
-        <v>367</v>
-      </c>
       <c r="AH354" t="s">
         <v>630</v>
       </c>
@@ -14027,7 +13988,7 @@
     </row>
     <row r="355" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B355" t="s">
         <v>125</v>
@@ -14036,10 +13997,10 @@
         <v>40</v>
       </c>
       <c r="D355" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="F355" t="s">
-        <v>363</v>
+        <v>195</v>
       </c>
       <c r="Y355" t="s">
         <v>638</v>
@@ -14073,11 +14034,55 @@
       </c>
     </row>
     <row r="356" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A356"/>
-    </row>
-    <row r="357" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>636</v>
+      </c>
+      <c r="B356" t="s">
+        <v>125</v>
+      </c>
+      <c r="C356" t="s">
+        <v>40</v>
+      </c>
+      <c r="D356" t="s">
+        <v>637</v>
+      </c>
+      <c r="F356" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y356" t="s">
+        <v>638</v>
+      </c>
+      <c r="Z356" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA356">
+        <v>10</v>
+      </c>
+      <c r="AB356" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC356" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD356" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE356" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH356" t="s">
+        <v>630</v>
+      </c>
+      <c r="AI356" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ356" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="357" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="B357" t="s">
         <v>125</v>
@@ -14086,22 +14091,19 @@
         <v>40</v>
       </c>
       <c r="D357" t="s">
-        <v>371</v>
-      </c>
-      <c r="E357" s="2" t="s">
-        <v>372</v>
+        <v>642</v>
       </c>
       <c r="F357" t="s">
         <v>363</v>
       </c>
       <c r="Y357" t="s">
-        <v>364</v>
+        <v>638</v>
       </c>
       <c r="Z357" t="s">
         <v>128</v>
       </c>
-      <c r="AA357" t="s">
-        <v>198</v>
+      <c r="AA357">
+        <v>10</v>
       </c>
       <c r="AB357" t="s">
         <v>256</v>
@@ -14112,8 +14114,11 @@
       <c r="AD357" t="s">
         <v>142</v>
       </c>
+      <c r="AE357" t="s">
+        <v>367</v>
+      </c>
       <c r="AH357" t="s">
-        <v>373</v>
+        <v>630</v>
       </c>
       <c r="AI357" t="s">
         <v>202</v>
@@ -14124,7 +14129,7 @@
     </row>
     <row r="358" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>681</v>
+        <v>639</v>
       </c>
       <c r="B358" t="s">
         <v>125</v>
@@ -14133,22 +14138,19 @@
         <v>40</v>
       </c>
       <c r="D358" t="s">
-        <v>133</v>
-      </c>
-      <c r="E358" s="2" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="F358" t="s">
         <v>363</v>
       </c>
       <c r="Y358" t="s">
-        <v>364</v>
+        <v>638</v>
       </c>
       <c r="Z358" t="s">
         <v>128</v>
       </c>
-      <c r="AA358" t="s">
-        <v>198</v>
+      <c r="AA358">
+        <v>10</v>
       </c>
       <c r="AB358" t="s">
         <v>256</v>
@@ -14159,8 +14161,11 @@
       <c r="AD358" t="s">
         <v>142</v>
       </c>
+      <c r="AE358" t="s">
+        <v>367</v>
+      </c>
       <c r="AH358" t="s">
-        <v>373</v>
+        <v>630</v>
       </c>
       <c r="AI358" t="s">
         <v>202</v>
@@ -14170,52 +14175,11 @@
       </c>
     </row>
     <row r="359" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>682</v>
-      </c>
-      <c r="B359" t="s">
-        <v>125</v>
-      </c>
-      <c r="C359" t="s">
-        <v>40</v>
-      </c>
-      <c r="D359" t="s">
-        <v>183</v>
-      </c>
-      <c r="F359" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y359" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z359" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA359" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB359" t="s">
-        <v>690</v>
-      </c>
-      <c r="AC359" t="s">
-        <v>366</v>
-      </c>
-      <c r="AD359" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH359" t="s">
-        <v>373</v>
-      </c>
-      <c r="AI359" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ359" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="360" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A359"/>
+    </row>
+    <row r="360" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="B360" t="s">
         <v>125</v>
@@ -14227,10 +14191,10 @@
         <v>371</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>674</v>
+        <v>372</v>
       </c>
       <c r="F360" t="s">
-        <v>236</v>
+        <v>363</v>
       </c>
       <c r="Y360" t="s">
         <v>364</v>
@@ -14239,7 +14203,7 @@
         <v>128</v>
       </c>
       <c r="AA360" t="s">
-        <v>370</v>
+        <v>198</v>
       </c>
       <c r="AB360" t="s">
         <v>256</v>
@@ -14251,7 +14215,7 @@
         <v>142</v>
       </c>
       <c r="AH360" t="s">
-        <v>675</v>
+        <v>373</v>
       </c>
       <c r="AI360" t="s">
         <v>202</v>
@@ -14262,7 +14226,7 @@
     </row>
     <row r="361" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="B361" t="s">
         <v>125</v>
@@ -14271,13 +14235,13 @@
         <v>40</v>
       </c>
       <c r="D361" t="s">
-        <v>371</v>
+        <v>133</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F361" t="s">
-        <v>683</v>
+        <v>363</v>
       </c>
       <c r="Y361" t="s">
         <v>364</v>
@@ -14286,7 +14250,7 @@
         <v>128</v>
       </c>
       <c r="AA361" t="s">
-        <v>370</v>
+        <v>198</v>
       </c>
       <c r="AB361" t="s">
         <v>256</v>
@@ -14298,7 +14262,7 @@
         <v>142</v>
       </c>
       <c r="AH361" t="s">
-        <v>675</v>
+        <v>373</v>
       </c>
       <c r="AI361" t="s">
         <v>202</v>
@@ -14309,7 +14273,7 @@
     </row>
     <row r="362" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B362" t="s">
         <v>125</v>
@@ -14318,25 +14282,22 @@
         <v>40</v>
       </c>
       <c r="D362" t="s">
-        <v>371</v>
-      </c>
-      <c r="E362" s="2" t="s">
-        <v>678</v>
+        <v>183</v>
       </c>
       <c r="F362" t="s">
-        <v>236</v>
+        <v>126</v>
       </c>
       <c r="Y362" t="s">
-        <v>364</v>
+        <v>288</v>
       </c>
       <c r="Z362" t="s">
         <v>128</v>
       </c>
       <c r="AA362" t="s">
-        <v>370</v>
+        <v>198</v>
       </c>
       <c r="AB362" t="s">
-        <v>256</v>
+        <v>690</v>
       </c>
       <c r="AC362" t="s">
         <v>366</v>
@@ -14345,7 +14306,7 @@
         <v>142</v>
       </c>
       <c r="AH362" t="s">
-        <v>675</v>
+        <v>373</v>
       </c>
       <c r="AI362" t="s">
         <v>202</v>
@@ -14356,7 +14317,7 @@
     </row>
     <row r="363" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="B363" t="s">
         <v>125</v>
@@ -14365,7 +14326,10 @@
         <v>40</v>
       </c>
       <c r="D363" t="s">
-        <v>669</v>
+        <v>371</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>674</v>
       </c>
       <c r="F363" t="s">
         <v>236</v>
@@ -14376,20 +14340,23 @@
       <c r="Z363" t="s">
         <v>128</v>
       </c>
-      <c r="AA363">
-        <v>12</v>
+      <c r="AA363" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB363" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC363" t="s">
+        <v>366</v>
       </c>
       <c r="AD363" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG363" t="s">
-        <v>355</v>
+        <v>142</v>
       </c>
       <c r="AH363" t="s">
-        <v>356</v>
+        <v>675</v>
       </c>
       <c r="AI363" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="AJ363" t="s">
         <v>203</v>
@@ -14397,7 +14364,7 @@
     </row>
     <row r="364" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="B364" t="s">
         <v>125</v>
@@ -14406,10 +14373,13 @@
         <v>40</v>
       </c>
       <c r="D364" t="s">
-        <v>345</v>
+        <v>371</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>679</v>
       </c>
       <c r="F364" t="s">
-        <v>236</v>
+        <v>683</v>
       </c>
       <c r="Y364" t="s">
         <v>364</v>
@@ -14417,20 +14387,23 @@
       <c r="Z364" t="s">
         <v>128</v>
       </c>
-      <c r="AA364">
-        <v>12</v>
+      <c r="AA364" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB364" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC364" t="s">
+        <v>366</v>
       </c>
       <c r="AD364" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG364" t="s">
-        <v>355</v>
+        <v>142</v>
       </c>
       <c r="AH364" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="AI364" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="AJ364" t="s">
         <v>203</v>
@@ -14438,7 +14411,7 @@
     </row>
     <row r="365" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="B365" t="s">
         <v>125</v>
@@ -14447,7 +14420,10 @@
         <v>40</v>
       </c>
       <c r="D365" t="s">
-        <v>349</v>
+        <v>371</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>678</v>
       </c>
       <c r="F365" t="s">
         <v>236</v>
@@ -14458,132 +14434,162 @@
       <c r="Z365" t="s">
         <v>128</v>
       </c>
-      <c r="AA365">
-        <v>12</v>
+      <c r="AA365" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB365" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC365" t="s">
+        <v>366</v>
       </c>
       <c r="AD365" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG365" t="s">
-        <v>355</v>
+        <v>142</v>
       </c>
       <c r="AH365" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="AI365" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="AJ365" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="366" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A366"/>
+      <c r="A366" t="s">
+        <v>684</v>
+      </c>
+      <c r="B366" t="s">
+        <v>125</v>
+      </c>
+      <c r="C366" t="s">
+        <v>40</v>
+      </c>
+      <c r="D366" t="s">
+        <v>669</v>
+      </c>
+      <c r="F366" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y366" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z366" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA366">
+        <v>12</v>
+      </c>
+      <c r="AD366" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG366" t="s">
+        <v>355</v>
+      </c>
+      <c r="AH366" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI366" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ366" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="367" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A367" s="3" t="s">
-        <v>857</v>
+      <c r="A367" t="s">
+        <v>685</v>
+      </c>
+      <c r="B367" t="s">
+        <v>125</v>
+      </c>
+      <c r="C367" t="s">
+        <v>40</v>
+      </c>
+      <c r="D367" t="s">
+        <v>345</v>
+      </c>
+      <c r="F367" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y367" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z367" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA367">
+        <v>12</v>
+      </c>
+      <c r="AD367" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG367" t="s">
+        <v>355</v>
+      </c>
+      <c r="AH367" t="s">
+        <v>671</v>
+      </c>
+      <c r="AI367" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ367" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="368" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>595</v>
+        <v>686</v>
       </c>
       <c r="B368" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C368" t="s">
         <v>40</v>
       </c>
       <c r="D368" t="s">
-        <v>578</v>
-      </c>
-      <c r="E368" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="O368" t="s">
-        <v>121</v>
-      </c>
-      <c r="P368" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q368" t="s">
-        <v>400</v>
-      </c>
-      <c r="R368" t="s">
-        <v>604</v>
-      </c>
-      <c r="U368" t="s">
-        <v>592</v>
+        <v>349</v>
+      </c>
+      <c r="F368" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y368" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z368" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA368">
+        <v>12</v>
+      </c>
+      <c r="AD368" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG368" t="s">
+        <v>355</v>
+      </c>
+      <c r="AH368" t="s">
+        <v>670</v>
+      </c>
+      <c r="AI368" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ368" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="369" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>594</v>
-      </c>
-      <c r="B369" t="s">
-        <v>118</v>
-      </c>
-      <c r="C369" t="s">
-        <v>40</v>
-      </c>
-      <c r="D369" t="s">
-        <v>577</v>
-      </c>
-      <c r="E369" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="O369" t="s">
-        <v>121</v>
-      </c>
-      <c r="P369" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q369" t="s">
-        <v>400</v>
-      </c>
-      <c r="R369" t="s">
-        <v>604</v>
-      </c>
-      <c r="U369" t="s">
-        <v>592</v>
-      </c>
+      <c r="A369"/>
     </row>
     <row r="370" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>596</v>
-      </c>
-      <c r="B370" t="s">
-        <v>118</v>
-      </c>
-      <c r="C370" t="s">
-        <v>40</v>
-      </c>
-      <c r="D370" t="s">
-        <v>579</v>
-      </c>
-      <c r="E370" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="O370" t="s">
-        <v>121</v>
-      </c>
-      <c r="P370" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q370" t="s">
-        <v>400</v>
-      </c>
-      <c r="R370" t="s">
-        <v>604</v>
-      </c>
-      <c r="U370" t="s">
-        <v>592</v>
+      <c r="A370" s="3" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="371" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B371" t="s">
         <v>118</v>
@@ -14592,10 +14598,10 @@
         <v>40</v>
       </c>
       <c r="D371" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O371" t="s">
         <v>121</v>
@@ -14615,7 +14621,7 @@
     </row>
     <row r="372" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B372" t="s">
         <v>118</v>
@@ -14624,10 +14630,10 @@
         <v>40</v>
       </c>
       <c r="D372" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="O372" t="s">
         <v>121</v>
@@ -14647,7 +14653,7 @@
     </row>
     <row r="373" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B373" t="s">
         <v>118</v>
@@ -14656,10 +14662,10 @@
         <v>40</v>
       </c>
       <c r="D373" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O373" t="s">
         <v>121</v>
@@ -14679,7 +14685,7 @@
     </row>
     <row r="374" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B374" t="s">
         <v>118</v>
@@ -14688,10 +14694,10 @@
         <v>40</v>
       </c>
       <c r="D374" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O374" t="s">
         <v>121</v>
@@ -14709,9 +14715,41 @@
         <v>592</v>
       </c>
     </row>
+    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>598</v>
+      </c>
+      <c r="B375" t="s">
+        <v>118</v>
+      </c>
+      <c r="C375" t="s">
+        <v>40</v>
+      </c>
+      <c r="D375" t="s">
+        <v>586</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="O375" t="s">
+        <v>121</v>
+      </c>
+      <c r="P375" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q375" t="s">
+        <v>400</v>
+      </c>
+      <c r="R375" t="s">
+        <v>604</v>
+      </c>
+      <c r="U375" t="s">
+        <v>592</v>
+      </c>
+    </row>
     <row r="376" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B376" t="s">
         <v>118</v>
@@ -14720,10 +14758,10 @@
         <v>40</v>
       </c>
       <c r="D376" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="O376" t="s">
         <v>121</v>
@@ -14732,10 +14770,10 @@
         <v>122</v>
       </c>
       <c r="Q376" t="s">
-        <v>338</v>
+        <v>400</v>
       </c>
       <c r="R376" t="s">
-        <v>888</v>
+        <v>604</v>
       </c>
       <c r="U376" t="s">
         <v>592</v>
@@ -14743,7 +14781,7 @@
     </row>
     <row r="377" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="B377" t="s">
         <v>118</v>
@@ -14752,10 +14790,10 @@
         <v>40</v>
       </c>
       <c r="D377" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="O377" t="s">
         <v>121</v>
@@ -14764,50 +14802,18 @@
         <v>122</v>
       </c>
       <c r="Q377" t="s">
-        <v>338</v>
+        <v>400</v>
       </c>
       <c r="R377" t="s">
-        <v>888</v>
+        <v>604</v>
       </c>
       <c r="U377" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>587</v>
-      </c>
-      <c r="B378" t="s">
-        <v>118</v>
-      </c>
-      <c r="C378" t="s">
-        <v>40</v>
-      </c>
-      <c r="D378" t="s">
-        <v>590</v>
-      </c>
-      <c r="E378" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="O378" t="s">
-        <v>121</v>
-      </c>
-      <c r="P378" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q378" t="s">
-        <v>338</v>
-      </c>
-      <c r="R378" t="s">
-        <v>888</v>
-      </c>
-      <c r="U378" t="s">
-        <v>592</v>
-      </c>
-    </row>
     <row r="379" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="B379" t="s">
         <v>118</v>
@@ -14816,10 +14822,10 @@
         <v>40</v>
       </c>
       <c r="D379" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="O379" t="s">
         <v>121</v>
@@ -14839,7 +14845,7 @@
     </row>
     <row r="380" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B380" t="s">
         <v>118</v>
@@ -14848,10 +14854,10 @@
         <v>40</v>
       </c>
       <c r="D380" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="O380" t="s">
         <v>121</v>
@@ -14871,7 +14877,7 @@
     </row>
     <row r="381" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B381" t="s">
         <v>118</v>
@@ -14880,10 +14886,10 @@
         <v>40</v>
       </c>
       <c r="D381" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="O381" t="s">
         <v>121</v>
@@ -14902,7 +14908,103 @@
       </c>
     </row>
     <row r="382" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A382"/>
+      <c r="A382" t="s">
+        <v>585</v>
+      </c>
+      <c r="B382" t="s">
+        <v>118</v>
+      </c>
+      <c r="C382" t="s">
+        <v>40</v>
+      </c>
+      <c r="D382" t="s">
+        <v>586</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="O382" t="s">
+        <v>121</v>
+      </c>
+      <c r="P382" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q382" t="s">
+        <v>338</v>
+      </c>
+      <c r="R382" t="s">
+        <v>888</v>
+      </c>
+      <c r="U382" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>583</v>
+      </c>
+      <c r="B383" t="s">
+        <v>118</v>
+      </c>
+      <c r="C383" t="s">
+        <v>40</v>
+      </c>
+      <c r="D383" t="s">
+        <v>584</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="O383" t="s">
+        <v>121</v>
+      </c>
+      <c r="P383" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q383" t="s">
+        <v>338</v>
+      </c>
+      <c r="R383" t="s">
+        <v>888</v>
+      </c>
+      <c r="U383" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>582</v>
+      </c>
+      <c r="B384" t="s">
+        <v>118</v>
+      </c>
+      <c r="C384" t="s">
+        <v>40</v>
+      </c>
+      <c r="D384" t="s">
+        <v>580</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="O384" t="s">
+        <v>121</v>
+      </c>
+      <c r="P384" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q384" t="s">
+        <v>338</v>
+      </c>
+      <c r="R384" t="s">
+        <v>888</v>
+      </c>
+      <c r="U384" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
